--- a/matrix.xlsx
+++ b/matrix.xlsx
@@ -424,281 +424,281 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>47</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>49</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>33</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>57</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>36</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>43</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>9</t>
@@ -706,29 +706,29 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>51</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>58</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
     </row>
